--- a/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line B - 100RP/Sequence 34 - Wort Copper 2/100RP297_S34_Handler.xlsx
+++ b/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line B - 100RP/Sequence 34 - Wort Copper 2/100RP297_S34_Handler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dso/ProLeiT/Massafra/MassafraSQL/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line B - 100RP/Sequence 34 - Wort Copper 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC3BBF3-3AC6-984D-93C0-3E6F33794D68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7689036D-E783-5E4C-8CED-7EE6F27EFB89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9520" yWindow="-21140" windowWidth="51200" windowHeight="21140" activeTab="7" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
+    <workbookView xWindow="-9520" yWindow="-21600" windowWidth="25560" windowHeight="21600" firstSheet="1" activeTab="7" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="00 Value Source" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="395">
   <si>
     <r>
       <t xml:space="preserve">UPDATE </t>
@@ -1301,6 +1301,78 @@
   <si>
     <t>68RP279.5718:1806VCM</t>
   </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>20: MES: Time casting</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>043: Volume at Start Boiling</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>044: Volume at End casting</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>045: Extract loses</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>046: °P measured at Boiling start</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>047: Final extract</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>048: Yield at end of Boiling</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>049: Theoritical Energy setpoint</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>050: Final orig Gravity mass per vol %</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>051: Malt Outtake Total Amount</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>057: Volume cold wort</t>
+  </si>
+  <si>
+    <t>Need to be visible in procedure</t>
+  </si>
+  <si>
+    <t>Thermal energy complete</t>
+  </si>
 </sst>
 </file>
 
@@ -1371,7 +1443,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1423,6 +1495,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1586,7 +1670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1654,7 +1738,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1691,6 +1774,10 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4952,14 +5039,14 @@
     <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="str">
         <f>CONCATENATE(B2,C2,D2,E2)</f>
-        <v>-- Option: Massafra -   | Bergamo - 009: 003: Use steam</v>
+        <v>-- Option: Massafra -  009: 003: Use steam | Bergamo - 009: 003: Use steam</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>IF('01 Option Comparison'!$K$3="NULL","",IF(ISBLANK('01 Option Comparison'!$K$3),"",'01 Option Comparison'!$K$3))</f>
-        <v/>
+        <v>009: 003: Use steam</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>25</v>
@@ -7410,14 +7497,14 @@
     <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="str">
         <f>CONCATENATE(B2,C2,D2,E2)</f>
-        <v>-- Function: Massafra -   | Bergamo - 01: SeqRunTime</v>
+        <v>-- Function: Massafra -  SeqRunTime | Bergamo - 01: SeqRunTime</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$3="NULL","",IF(ISBLANK('01 Function Comparison'!$K$3),"",'01 Function Comparison'!$K$3))</f>
-        <v/>
+        <v>SeqRunTime</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>25</v>
@@ -7467,7 +7554,7 @@
     <row r="6" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="str">
         <f>CONCATENATE(D6,"N'",F6,"'")</f>
-        <v>WHERE _Name = N''</v>
+        <v>WHERE _Name = N'100RP297.1073741923SUPPLFX'</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="30"/>
@@ -7477,20 +7564,20 @@
       <c r="E6" s="36"/>
       <c r="F6" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$3="NULL","",IF(ISBLANK('01 Function Comparison'!$L$3),"",'01 Function Comparison'!$L$3))</f>
-        <v/>
+        <v>100RP297.1073741923SUPPLFX</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="str">
         <f>CONCATENATE(B7,C7,D7,E7)</f>
-        <v>-- Function: Massafra -   | Bergamo - 15: MES: Time casting</v>
+        <v>-- Function: Massafra -  20: MES: Time casting | Bergamo - 15: MES: Time casting</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$4="NULL","",IF(ISBLANK('01 Function Comparison'!$K$4),"",'01 Function Comparison'!$K$4))</f>
-        <v/>
+        <v>20: MES: Time casting</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>25</v>
@@ -7556,14 +7643,14 @@
     <row r="12" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="str">
         <f>CONCATENATE(B12,C12,D12,E12)</f>
-        <v>-- Function: Massafra -   | Bergamo - 22: Total SHW</v>
+        <v>-- Function: Massafra -  22: Total SHW | Bergamo - 22: Total SHW</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$5="NULL","",IF(ISBLANK('01 Function Comparison'!$K$5),"",'01 Function Comparison'!$K$5))</f>
-        <v/>
+        <v>22: Total SHW</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>25</v>
@@ -7629,14 +7716,14 @@
     <row r="17" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="str">
         <f>CONCATENATE(B17,C17,D17,E17)</f>
-        <v>-- Function: Massafra -   | Bergamo - 23: Total energy</v>
+        <v>-- Function: Massafra -  23: Total energy | Bergamo - 23: Total energy</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$6="NULL","",IF(ISBLANK('01 Function Comparison'!$K$6),"",'01 Function Comparison'!$K$6))</f>
-        <v/>
+        <v>23: Total energy</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>25</v>
@@ -10655,7 +10742,7 @@
     <row r="56" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="str">
         <f>CONCATENATE(D56,"N'",F56,"'")</f>
-        <v>WHERE _Name = N''</v>
+        <v>WHERE _Name = N'Need to be visible in procedure'</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="30"/>
@@ -10665,20 +10752,20 @@
       <c r="E56" s="36"/>
       <c r="F56" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$13="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$13),"",'01 Operation Comparison'!$P$13))</f>
-        <v/>
+        <v>Need to be visible in procedure</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="38" t="str">
         <f>CONCATENATE(B57,C57,D57,E57)</f>
-        <v>-- Operation: Massafra - 344 - Boiling ( Minimum Temperature fan control ) | Bergamo - Boiling ( Evapouration Factor )</v>
+        <v>-- Operation: Massafra -  | Bergamo - Boiling ( Evapouration Factor )</v>
       </c>
       <c r="B57" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C57" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$14="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$14),"",CONCATENATE('01 Operation Comparison'!$N$14," ( ",'01 Operation Comparison'!$O$14," )")))</f>
-        <v>344 - Boiling ( Minimum Temperature fan control )</v>
+        <v/>
       </c>
       <c r="D57" s="25" t="s">
         <v>25</v>
@@ -10728,7 +10815,7 @@
     <row r="61" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="str">
         <f>CONCATENATE(D61,"N'",F61,"'")</f>
-        <v>WHERE _Name = N'100RP297.3096:1470VCM'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="30"/>
@@ -10738,7 +10825,7 @@
       <c r="E61" s="36"/>
       <c r="F61" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$14="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$14),"",'01 Operation Comparison'!$P$14))</f>
-        <v>100RP297.3096:1470VCM</v>
+        <v/>
       </c>
     </row>
     <row r="62" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -15678,8 +15765,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15702,28 +15789,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45"/>
+      <c r="F1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
-      <c r="N1" s="53" t="s">
+      <c r="K1" s="50"/>
+      <c r="L1" s="51"/>
+      <c r="N1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="55"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -15798,6 +15885,12 @@
       <c r="I3" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="J3" s="56" t="s">
+        <v>373</v>
+      </c>
+      <c r="K3" s="55" t="s">
+        <v>374</v>
+      </c>
       <c r="N3" s="11">
         <f>'00 Value Source'!H1</f>
         <v>2</v>
@@ -15839,6 +15932,12 @@
       </c>
       <c r="I4" s="4" t="s">
         <v>41</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>376</v>
       </c>
       <c r="N4" s="11">
         <f>'00 Value Source'!H2</f>
@@ -15882,6 +15981,12 @@
       <c r="I5" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="J5" s="56" t="s">
+        <v>377</v>
+      </c>
+      <c r="K5" s="55" t="s">
+        <v>378</v>
+      </c>
       <c r="N5" s="11">
         <f>'00 Value Source'!H3</f>
         <v>13</v>
@@ -15924,6 +16029,12 @@
       <c r="I6" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="J6" s="56" t="s">
+        <v>379</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>380</v>
+      </c>
       <c r="N6" s="11">
         <f>'00 Value Source'!H4</f>
         <v>14</v>
@@ -15966,6 +16077,12 @@
       <c r="I7" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="J7" s="56" t="s">
+        <v>381</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>382</v>
+      </c>
       <c r="N7" s="11">
         <f>'00 Value Source'!H5</f>
         <v>19</v>
@@ -16008,6 +16125,12 @@
       <c r="I8" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="J8" s="56" t="s">
+        <v>383</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>384</v>
+      </c>
       <c r="N8" s="11">
         <f>'00 Value Source'!H6</f>
         <v>20</v>
@@ -16050,6 +16173,8 @@
       <c r="I9" s="4" t="s">
         <v>232</v>
       </c>
+      <c r="J9" s="56"/>
+      <c r="K9" s="55"/>
       <c r="N9" s="11" t="str">
         <f>'00 Value Source'!H7</f>
         <v>NULL</v>
@@ -16092,6 +16217,12 @@
       <c r="I10" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="J10" s="56" t="s">
+        <v>385</v>
+      </c>
+      <c r="K10" s="55" t="s">
+        <v>386</v>
+      </c>
       <c r="N10" s="11">
         <f>'00 Value Source'!H8</f>
         <v>38</v>
@@ -16134,6 +16265,12 @@
       <c r="I11" s="4" t="s">
         <v>60</v>
       </c>
+      <c r="J11" s="56" t="s">
+        <v>387</v>
+      </c>
+      <c r="K11" s="55" t="s">
+        <v>388</v>
+      </c>
       <c r="N11" s="11">
         <f>'00 Value Source'!H9</f>
         <v>40</v>
@@ -16176,6 +16313,12 @@
       <c r="I12" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="J12" s="56" t="s">
+        <v>389</v>
+      </c>
+      <c r="K12" s="55" t="s">
+        <v>390</v>
+      </c>
       <c r="N12" s="11">
         <f>'00 Value Source'!H10</f>
         <v>41</v>
@@ -16218,6 +16361,12 @@
       <c r="I13" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="J13" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="K13" s="55" t="s">
+        <v>392</v>
+      </c>
       <c r="N13" s="11" t="str">
         <f>'00 Value Source'!H11</f>
         <v>NULL</v>
@@ -16260,6 +16409,12 @@
       <c r="I14" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="J14" s="2">
+        <v>58</v>
+      </c>
+      <c r="K14" s="55" t="s">
+        <v>64</v>
+      </c>
       <c r="N14" s="11" t="str">
         <f>'00 Value Source'!H12</f>
         <v>NULL</v>
@@ -16302,6 +16457,12 @@
       <c r="I15" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="J15" s="2">
+        <v>59</v>
+      </c>
+      <c r="K15" s="55" t="s">
+        <v>67</v>
+      </c>
       <c r="N15" s="11" t="str">
         <f>'00 Value Source'!H13</f>
         <v>NULL</v>
@@ -16344,6 +16505,12 @@
       <c r="I16" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="J16" s="2">
+        <v>60</v>
+      </c>
+      <c r="K16" s="55" t="s">
+        <v>70</v>
+      </c>
       <c r="N16" s="11" t="str">
         <f>'00 Value Source'!H14</f>
         <v>NULL</v>
@@ -16385,6 +16552,12 @@
       </c>
       <c r="I17" s="4" t="s">
         <v>73</v>
+      </c>
+      <c r="J17" s="2">
+        <v>61</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="N17" s="11" t="str">
         <f>'00 Value Source'!H15</f>
@@ -21689,8 +21862,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21713,28 +21886,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45"/>
+      <c r="F1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
-      <c r="N1" s="53" t="s">
+      <c r="K1" s="50"/>
+      <c r="L1" s="51"/>
+      <c r="N1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="55"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -21809,7 +21982,9 @@
       <c r="I3" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="K3" s="43"/>
+      <c r="K3" s="57" t="s">
+        <v>119</v>
+      </c>
       <c r="N3" s="11" t="str">
         <f>'00 Option Source'!H1</f>
         <v>NULL</v>
@@ -28025,8 +28200,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D6" sqref="A3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28049,28 +28224,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45"/>
+      <c r="F1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
-      <c r="N1" s="53" t="s">
+      <c r="K1" s="50"/>
+      <c r="L1" s="51"/>
+      <c r="N1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="55"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -28145,6 +28320,15 @@
       <c r="I3" s="4" t="s">
         <v>137</v>
       </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>289</v>
+      </c>
       <c r="N3" s="11">
         <f>'00 Function Source'!H1</f>
         <v>1</v>
@@ -28187,6 +28371,12 @@
       <c r="I4" s="4" t="s">
         <v>141</v>
       </c>
+      <c r="J4" s="56" t="s">
+        <v>371</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>372</v>
+      </c>
       <c r="N4" s="11">
         <f>'00 Function Source'!H2</f>
         <v>15</v>
@@ -28229,6 +28419,9 @@
       <c r="I5" s="4" t="s">
         <v>144</v>
       </c>
+      <c r="K5" s="55" t="s">
+        <v>142</v>
+      </c>
       <c r="N5" s="11" t="str">
         <f>'00 Function Source'!H3</f>
         <v>NULL</v>
@@ -28270,6 +28463,9 @@
       </c>
       <c r="I6" s="4" t="s">
         <v>146</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>145</v>
       </c>
       <c r="N6" s="11" t="str">
         <f>'00 Function Source'!H4</f>
@@ -34792,8 +34988,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:T263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34820,32 +35016,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
-      <c r="H1" s="47" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45"/>
+      <c r="H1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50" t="s">
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="52"/>
-      <c r="R1" s="53" t="s">
+      <c r="O1" s="50"/>
+      <c r="P1" s="51"/>
+      <c r="R1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="54"/>
-      <c r="T1" s="55"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="54"/>
     </row>
     <row r="2" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -35596,14 +35792,11 @@
       <c r="M13" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>3</v>
+      <c r="O13" t="s">
+        <v>201</v>
+      </c>
+      <c r="P13" s="58" t="s">
+        <v>393</v>
       </c>
       <c r="R13" s="11" t="str">
         <f>'00 Operation Source'!C11</f>
@@ -35661,14 +35854,8 @@
       <c r="M14" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>342</v>
+      <c r="O14" s="57" t="s">
+        <v>203</v>
       </c>
       <c r="R14" s="11" t="str">
         <f>'00 Operation Source'!C12</f>
@@ -35726,14 +35913,8 @@
       <c r="M15" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>3</v>
+      <c r="O15" t="s">
+        <v>394</v>
       </c>
       <c r="R15" s="11" t="str">
         <f>'00 Operation Source'!C13</f>
@@ -36571,14 +36752,8 @@
       <c r="M28" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="N28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>3</v>
+      <c r="O28" t="s">
+        <v>201</v>
       </c>
       <c r="R28" s="11" t="str">
         <f>'00 Operation Source'!C26</f>
@@ -36636,14 +36811,8 @@
       <c r="M29" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="N29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>3</v>
+      <c r="O29" s="57" t="s">
+        <v>203</v>
       </c>
       <c r="R29" s="11" t="str">
         <f>'00 Operation Source'!C27</f>
@@ -40694,14 +40863,14 @@
     <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="str">
         <f>CONCATENATE(B2,C2,D2,E2)</f>
-        <v>-- Value: Massafra -   | Bergamo - 002: Volume at Start Boiling</v>
+        <v>-- Value: Massafra -  043: Volume at Start Boiling | Bergamo - 002: Volume at Start Boiling</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$3="NULL","",IF(ISBLANK('01 Value Comparison'!$K$3),"",'01 Value Comparison'!$K$3))</f>
-        <v/>
+        <v>043: Volume at Start Boiling</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>25</v>
@@ -40767,14 +40936,14 @@
     <row r="7" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="str">
         <f>CONCATENATE(B7,C7,D7,E7)</f>
-        <v>-- Value: Massafra -   | Bergamo - 03: Volume at End casting</v>
+        <v>-- Value: Massafra -  044: Volume at End casting | Bergamo - 03: Volume at End casting</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$4="NULL","",IF(ISBLANK('01 Value Comparison'!$K$4),"",'01 Value Comparison'!$K$4))</f>
-        <v/>
+        <v>044: Volume at End casting</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>25</v>
@@ -40840,14 +41009,14 @@
     <row r="12" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="str">
         <f>CONCATENATE(B12,C12,D12,E12)</f>
-        <v>-- Value: Massafra -   | Bergamo - 013: Extract loses</v>
+        <v>-- Value: Massafra -  045: Extract loses | Bergamo - 013: Extract loses</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$5="NULL","",IF(ISBLANK('01 Value Comparison'!$K$5),"",'01 Value Comparison'!$K$5))</f>
-        <v/>
+        <v>045: Extract loses</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>25</v>
@@ -40913,14 +41082,14 @@
     <row r="17" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="str">
         <f>CONCATENATE(B17,C17,D17,E17)</f>
-        <v>-- Value: Massafra -   | Bergamo - 014: °P measured at Boiling start</v>
+        <v>-- Value: Massafra -  046: °P measured at Boiling start | Bergamo - 014: °P measured at Boiling start</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$6="NULL","",IF(ISBLANK('01 Value Comparison'!$K$6),"",'01 Value Comparison'!$K$6))</f>
-        <v/>
+        <v>046: °P measured at Boiling start</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>25</v>
@@ -40986,14 +41155,14 @@
     <row r="22" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="str">
         <f>CONCATENATE(B22,C22,D22,E22)</f>
-        <v>-- Value: Massafra -   | Bergamo - 019: Final extract</v>
+        <v>-- Value: Massafra -  047: Final extract | Bergamo - 019: Final extract</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$7="NULL","",IF(ISBLANK('01 Value Comparison'!$K$7),"",'01 Value Comparison'!$K$7))</f>
-        <v/>
+        <v>047: Final extract</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>25</v>
@@ -41059,14 +41228,14 @@
     <row r="27" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38" t="str">
         <f>CONCATENATE(B27,C27,D27,E27)</f>
-        <v>-- Value: Massafra -   | Bergamo - 020: Yield at end of Boiling</v>
+        <v>-- Value: Massafra -  048: Yield at end of Boiling | Bergamo - 020: Yield at end of Boiling</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$8="NULL","",IF(ISBLANK('01 Value Comparison'!$K$8),"",'01 Value Comparison'!$K$8))</f>
-        <v/>
+        <v>048: Yield at end of Boiling</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>25</v>
@@ -41205,14 +41374,14 @@
     <row r="37" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="str">
         <f>CONCATENATE(B37,C37,D37,E37)</f>
-        <v>-- Value: Massafra -   | Bergamo - 038: Theoritical Energy setpoint</v>
+        <v>-- Value: Massafra -  049: Theoritical Energy setpoint | Bergamo - 038: Theoritical Energy setpoint</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C37" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$10="NULL","",IF(ISBLANK('01 Value Comparison'!$K$10),"",'01 Value Comparison'!$K$10))</f>
-        <v/>
+        <v>049: Theoritical Energy setpoint</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>25</v>
@@ -41278,14 +41447,14 @@
     <row r="42" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="38" t="str">
         <f>CONCATENATE(B42,C42,D42,E42)</f>
-        <v>-- Value: Massafra -   | Bergamo - 40: Final orig Gravity mass per vol %</v>
+        <v>-- Value: Massafra -  050: Final orig Gravity mass per vol % | Bergamo - 40: Final orig Gravity mass per vol %</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C42" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$11="NULL","",IF(ISBLANK('01 Value Comparison'!$K$11),"",'01 Value Comparison'!$K$11))</f>
-        <v/>
+        <v>050: Final orig Gravity mass per vol %</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>25</v>
@@ -41351,14 +41520,14 @@
     <row r="47" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="38" t="str">
         <f>CONCATENATE(B47,C47,D47,E47)</f>
-        <v>-- Value: Massafra -   | Bergamo - 41: Malt Outtake Total Amount</v>
+        <v>-- Value: Massafra -  051: Malt Outtake Total Amount | Bergamo - 41: Malt Outtake Total Amount</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$12="NULL","",IF(ISBLANK('01 Value Comparison'!$K$12),"",'01 Value Comparison'!$K$12))</f>
-        <v/>
+        <v>051: Malt Outtake Total Amount</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>25</v>
@@ -41424,14 +41593,14 @@
     <row r="52" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="38" t="str">
         <f>CONCATENATE(B52,C52,D52,E52)</f>
-        <v>-- Value: Massafra -   | Bergamo - 047: Volume cold wort</v>
+        <v>-- Value: Massafra -  057: Volume cold wort | Bergamo - 047: Volume cold wort</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C52" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$13="NULL","",IF(ISBLANK('01 Value Comparison'!$K$13),"",'01 Value Comparison'!$K$13))</f>
-        <v/>
+        <v>057: Volume cold wort</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>25</v>
@@ -41497,14 +41666,14 @@
     <row r="57" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="38" t="str">
         <f>CONCATENATE(B57,C57,D57,E57)</f>
-        <v>-- Value: Massafra -   | Bergamo - 058: MES Avg temp inlet boiler</v>
+        <v>-- Value: Massafra -  058: MES Avg temp inlet boiler | Bergamo - 058: MES Avg temp inlet boiler</v>
       </c>
       <c r="B57" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C57" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$14="NULL","",IF(ISBLANK('01 Value Comparison'!$K$14),"",'01 Value Comparison'!$K$14))</f>
-        <v/>
+        <v>058: MES Avg temp inlet boiler</v>
       </c>
       <c r="D57" s="25" t="s">
         <v>25</v>
@@ -41570,14 +41739,14 @@
     <row r="62" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="38" t="str">
         <f>CONCATENATE(B62,C62,D62,E62)</f>
-        <v>-- Value: Massafra -   | Bergamo - 059: MES Avg temp outlet boiler</v>
+        <v>-- Value: Massafra -  059: MES Avg temp outlet boiler | Bergamo - 059: MES Avg temp outlet boiler</v>
       </c>
       <c r="B62" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C62" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$15="NULL","",IF(ISBLANK('01 Value Comparison'!$K$15),"",'01 Value Comparison'!$K$15))</f>
-        <v/>
+        <v>059: MES Avg temp outlet boiler</v>
       </c>
       <c r="D62" s="25" t="s">
         <v>25</v>
@@ -41643,14 +41812,14 @@
     <row r="67" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="38" t="str">
         <f>CONCATENATE(B67,C67,D67,E67)</f>
-        <v>-- Value: Massafra -   | Bergamo - 060: Man. colour wort</v>
+        <v>-- Value: Massafra -  060: Man. colour wort | Bergamo - 060: Man. colour wort</v>
       </c>
       <c r="B67" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C67" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$16="NULL","",IF(ISBLANK('01 Value Comparison'!$K$16),"",'01 Value Comparison'!$K$16))</f>
-        <v/>
+        <v>060: Man. colour wort</v>
       </c>
       <c r="D67" s="25" t="s">
         <v>25</v>
@@ -41716,14 +41885,14 @@
     <row r="72" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="38" t="str">
         <f>CONCATENATE(B72,C72,D72,E72)</f>
-        <v>-- Value: Massafra -   | Bergamo - 061: Man. pH Wort After Boiling (pH)</v>
+        <v>-- Value: Massafra -  061: Man. pH Wort After Boiling (pH) | Bergamo - 061: Man. pH Wort After Boiling (pH)</v>
       </c>
       <c r="B72" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C72" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$17="NULL","",IF(ISBLANK('01 Value Comparison'!$K$17),"",'01 Value Comparison'!$K$17))</f>
-        <v/>
+        <v>061: Man. pH Wort After Boiling (pH)</v>
       </c>
       <c r="D72" s="25" t="s">
         <v>25</v>
